--- a/r5-ELGA-MOPED-108-value-sets-fertigstellen/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-108-value-sets-fertigstellen/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T07:08:41+00:00</t>
+    <t>2024-10-11T07:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -565,43 +565,57 @@
       <c r="A13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" t="s" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" t="s" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
